--- a/daraz produts tracking/16-Nov-21/pop it fidget toy.xlsx
+++ b/daraz produts tracking/16-Nov-21/pop it fidget toy.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="sheet1-18nov" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sheet1-19nov" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -2051,8 +2051,8 @@
   </sheetPr>
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2198,7 +2198,9 @@
       <c r="I8" s="10" t="n">
         <v>664</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10" t="n">
+        <v>516</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
       <c r="M8" s="5"/>
@@ -2212,11 +2214,11 @@
       </c>
       <c r="P8" s="10" t="n">
         <f aca="false">SUM(I8-J8)</f>
-        <v>664</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="10" t="n">
         <f aca="false">SUM(J8-K8)</f>
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="R8" s="10" t="n">
         <f aca="false">SUM(K8-L8)</f>
@@ -2290,6 +2292,9 @@
       <c r="H9" s="14" t="n">
         <v>38</v>
       </c>
+      <c r="J9" s="14" t="n">
+        <v>263</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="5"/>
       <c r="N9" s="16" t="n">
@@ -2364,6 +2369,9 @@
       <c r="I10" s="14" t="n">
         <v>5608</v>
       </c>
+      <c r="J10" s="14" t="n">
+        <v>4578</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="5"/>
       <c r="N10" s="16" t="n">
@@ -2438,6 +2446,9 @@
       <c r="I11" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="J11" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="5"/>
       <c r="N11" s="16" t="n">
@@ -2512,6 +2523,9 @@
       <c r="I12" s="14" t="n">
         <v>7</v>
       </c>
+      <c r="J12" s="14" t="n">
+        <v>4</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="n">
@@ -2586,6 +2600,9 @@
       <c r="I13" s="14" t="n">
         <v>443</v>
       </c>
+      <c r="J13" s="14" t="n">
+        <v>198</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="5"/>
       <c r="N13" s="16" t="n">
@@ -2660,6 +2677,9 @@
       <c r="I14" s="14" t="n">
         <v>63</v>
       </c>
+      <c r="J14" s="14" t="n">
+        <v>251</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="5"/>
       <c r="N14" s="16" t="n">
@@ -2734,6 +2754,9 @@
       <c r="I15" s="14" t="n">
         <v>2</v>
       </c>
+      <c r="J15" s="14" t="n">
+        <v>59104</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="5"/>
       <c r="N15" s="16" t="n">
@@ -2808,6 +2831,9 @@
       <c r="I16" s="14" t="n">
         <v>4</v>
       </c>
+      <c r="J16" s="14" t="n">
+        <v>59273</v>
+      </c>
       <c r="L16" s="15"/>
       <c r="M16" s="5"/>
       <c r="N16" s="16" t="n">
@@ -2882,6 +2908,9 @@
       <c r="I17" s="14" t="n">
         <v>87</v>
       </c>
+      <c r="J17" s="14" t="n">
+        <v>61</v>
+      </c>
       <c r="L17" s="15"/>
       <c r="M17" s="17"/>
       <c r="N17" s="16" t="n">
@@ -2949,11 +2978,11 @@
       </c>
       <c r="P18" s="20" t="n">
         <f aca="false">AVERAGE(P8:P17)</f>
-        <v>664</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="20" t="n">
         <f aca="false">AVERAGE(Q8:Q17)</f>
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="R18" s="20" t="n">
         <f aca="false">AVERAGE(R8:R17)</f>
@@ -3203,15 +3232,15 @@
     <mergeCell ref="D29:E29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T8" r:id="rId1" display="https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-hexagon-i227190394-s1446878358.html?spm=a2a0e.searchlist.list.1.54161eb3G8oxqD&amp;search=1"/>
-    <hyperlink ref="T9" r:id="rId2" display="https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-square-i227191389-s1446876693.html?spm=a2a0e.searchlist.list.3.54161eb3G8oxqD&amp;search=1"/>
-    <hyperlink ref="T10" r:id="rId3" display="https://www.daraz.pk/products/pop-toy-bubble-squeeze-sensory-fidget-toy-pop-it-figit-toy-fidget-toys-special-needs-stress-reliever-push-bubble-gadgets-i223577350-s1440977580.html?spm=a2a0e.searchlist.list.5.54161eb3G8oxqD&amp;search=1"/>
-    <hyperlink ref="T11" r:id="rId4" display="https://www.daraz.pk/products/silicon-pop-it-fidget-toy-pop-bubble-squeeze-sensory-fidget-toys-pop-it-toy-special-needs-stress-reliever-push-bubble-gadget-i207978169-s1447573043.html?spm=a2a0e.searchlist.list.7.54161eb3G8oxqD&amp;search=1"/>
-    <hyperlink ref="T12" r:id="rId5" display="https://www.daraz.pk/products/pop-it-fidget-toys-push-bubble-popping-game-educational-octagon-macaron-toy-kids-sensory-stress-relief-i231117361-s1451140770.html?spm=a2a0e.searchlist.list.9.54161eb3G8oxqD&amp;search=1"/>
-    <hyperlink ref="T13" r:id="rId6" display="https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-unicorn-i227919120-s1448345927.html?spm=a2a0e.searchlist.list.11.54161eb3G8oxqD&amp;search=1"/>
-    <hyperlink ref="T15" r:id="rId7" display="https://www.daraz.pk/products/pop-it-fidget-toys-push-bubble-popping-game-educational-square-macaron-toy-kids-sensory-stress-relief-i231120066-s1451152162.html?spm=a2a0e.searchlist.list.15.54161eb3fO5ZdO&amp;search=1"/>
-    <hyperlink ref="T16" r:id="rId8" display="https://www.daraz.pk/products/pop-it-fidget-toys-push-bubble-popping-game-educational-colorful-octagon-shape-toy-kids-sensory-stress-relief-i231116345-s1451151220.html?spm=a2a0e.searchlist.list.17.54161eb3fO5ZdO&amp;search=1"/>
-    <hyperlink ref="T17" r:id="rId9" display="https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-dinosaur-i227911560-s1448344831.html?spm=a2a0e.searchlist.list.21.54161eb3fO5ZdO&amp;search=1"/>
+    <hyperlink ref="T8" r:id="rId1" display="View-source:https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-hexagon-i227190394-s1446878358.html?spm=a2a0e.searchlist.list.1.54161eb3G8oxqD&amp;search=1"/>
+    <hyperlink ref="T9" r:id="rId2" display="View-source:https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-square-i227191389-s1446876693.html?spm=a2a0e.searchlist.list.3.54161eb3G8oxqD&amp;search=1"/>
+    <hyperlink ref="T10" r:id="rId3" display="View-source:https://www.daraz.pk/products/pop-toy-bubble-squeeze-sensory-fidget-toy-pop-it-figit-toy-fidget-toys-special-needs-stress-reliever-push-bubble-gadgets-i223577350-s1440977580.html?spm=a2a0e.searchlist.list.5.54161eb3G8oxqD&amp;search=1"/>
+    <hyperlink ref="T11" r:id="rId4" display="View-source:https://www.daraz.pk/products/silicon-pop-it-fidget-toy-pop-bubble-squeeze-sensory-fidget-toys-pop-it-toy-special-needs-stress-reliever-push-bubble-gadget-i207978169-s1447573043.html?spm=a2a0e.searchlist.list.7.54161eb3G8oxqD&amp;search=1"/>
+    <hyperlink ref="T12" r:id="rId5" display="View-source:https://www.daraz.pk/products/pop-it-fidget-toys-push-bubble-popping-game-educational-octagon-macaron-toy-kids-sensory-stress-relief-i231117361-s1451140770.html?spm=a2a0e.searchlist.list.9.54161eb3G8oxqD&amp;search=1"/>
+    <hyperlink ref="T13" r:id="rId6" display="View-source:https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-unicorn-i227919120-s1448345927.html?spm=a2a0e.searchlist.list.11.54161eb3G8oxqD&amp;search=1"/>
+    <hyperlink ref="T15" r:id="rId7" display="View-source:https://www.daraz.pk/products/pop-it-fidget-toys-push-bubble-popping-game-educational-square-macaron-toy-kids-sensory-stress-relief-i231120066-s1451152162.html?spm=a2a0e.searchlist.list.15.54161eb3fO5ZdO&amp;search=1"/>
+    <hyperlink ref="T16" r:id="rId8" display="View-source:https://www.daraz.pk/products/pop-it-fidget-toys-push-bubble-popping-game-educational-colorful-octagon-shape-toy-kids-sensory-stress-relief-i231116345-s1451151220.html?spm=a2a0e.searchlist.list.17.54161eb3fO5ZdO&amp;search=1"/>
+    <hyperlink ref="T17" r:id="rId9" display="View-source:https://www.daraz.pk/products/push-pop-bubble-fidget-spinner-pop-it-silicone-toy-5-inches-rainbow-dinosaur-i227911560-s1448344831.html?spm=a2a0e.searchlist.list.21.54161eb3fO5ZdO&amp;search=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3234,7 +3263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3257,7 +3286,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/daraz produts tracking/16-Nov-21/pop it fidget toy.xlsx
+++ b/daraz produts tracking/16-Nov-21/pop it fidget toy.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="sheet1-19nov" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sheet1-20nov" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -2051,8 +2051,8 @@
   </sheetPr>
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2201,7 +2201,9 @@
       <c r="J8" s="10" t="n">
         <v>516</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10" t="n">
+        <v>453</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="5"/>
       <c r="N8" s="12" t="n">
@@ -2218,11 +2220,11 @@
       </c>
       <c r="Q8" s="10" t="n">
         <f aca="false">SUM(J8-K8)</f>
-        <v>516</v>
+        <v>63</v>
       </c>
       <c r="R8" s="10" t="n">
         <f aca="false">SUM(K8-L8)</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="S8" s="11" t="n">
         <f aca="false">SUM(L8-M8)</f>
@@ -2295,6 +2297,9 @@
       <c r="J9" s="14" t="n">
         <v>263</v>
       </c>
+      <c r="K9" s="14" t="n">
+        <v>197</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="5"/>
       <c r="N9" s="16" t="n">
@@ -2372,6 +2377,9 @@
       <c r="J10" s="14" t="n">
         <v>4578</v>
       </c>
+      <c r="K10" s="14" t="n">
+        <v>4539</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="5"/>
       <c r="N10" s="16" t="n">
@@ -2449,6 +2457,9 @@
       <c r="J11" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="K11" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="5"/>
       <c r="N11" s="16" t="n">
@@ -2526,6 +2537,9 @@
       <c r="J12" s="14" t="n">
         <v>4</v>
       </c>
+      <c r="K12" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="n">
@@ -2603,6 +2617,9 @@
       <c r="J13" s="14" t="n">
         <v>198</v>
       </c>
+      <c r="K13" s="14" t="n">
+        <v>514</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="5"/>
       <c r="N13" s="16" t="n">
@@ -2680,6 +2697,9 @@
       <c r="J14" s="14" t="n">
         <v>251</v>
       </c>
+      <c r="K14" s="14" t="n">
+        <v>273</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="5"/>
       <c r="N14" s="16" t="n">
@@ -2757,6 +2777,9 @@
       <c r="J15" s="14" t="n">
         <v>59104</v>
       </c>
+      <c r="K15" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="5"/>
       <c r="N15" s="16" t="n">
@@ -2834,6 +2857,9 @@
       <c r="J16" s="14" t="n">
         <v>59273</v>
       </c>
+      <c r="K16" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L16" s="15"/>
       <c r="M16" s="5"/>
       <c r="N16" s="16" t="n">
@@ -2911,6 +2937,9 @@
       <c r="J17" s="14" t="n">
         <v>61</v>
       </c>
+      <c r="K17" s="14" t="n">
+        <v>43</v>
+      </c>
       <c r="L17" s="15"/>
       <c r="M17" s="17"/>
       <c r="N17" s="16" t="n">
@@ -2982,11 +3011,11 @@
       </c>
       <c r="Q18" s="20" t="n">
         <f aca="false">AVERAGE(Q8:Q17)</f>
-        <v>516</v>
+        <v>63</v>
       </c>
       <c r="R18" s="20" t="n">
         <f aca="false">AVERAGE(R8:R17)</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="S18" s="21" t="n">
         <f aca="false">AVERAGE(S8:S17)</f>

--- a/daraz produts tracking/16-Nov-21/pop it fidget toy.xlsx
+++ b/daraz produts tracking/16-Nov-21/pop it fidget toy.xlsx
@@ -2051,8 +2051,8 @@
   </sheetPr>
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2204,7 +2204,9 @@
       <c r="K8" s="10" t="n">
         <v>453</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11" t="n">
+        <v>384</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="12" t="n">
         <f aca="false">SUM(G8-H8)</f>
@@ -2224,11 +2226,11 @@
       </c>
       <c r="R8" s="10" t="n">
         <f aca="false">SUM(K8-L8)</f>
-        <v>453</v>
+        <v>69</v>
       </c>
       <c r="S8" s="11" t="n">
         <f aca="false">SUM(L8-M8)</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="T8" s="13" t="s">
         <v>54</v>
@@ -2300,7 +2302,9 @@
       <c r="K9" s="14" t="n">
         <v>197</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="15" t="n">
+        <v>126</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="16" t="n">
         <f aca="false">SUM(G9-H9)</f>
@@ -2380,7 +2384,9 @@
       <c r="K10" s="14" t="n">
         <v>4539</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15" t="n">
+        <v>4464</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="16" t="n">
         <f aca="false">SUM(G10-H10)</f>
@@ -2460,7 +2466,9 @@
       <c r="K11" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="16" t="n">
         <f aca="false">SUM(G11-H11)</f>
@@ -2540,7 +2548,9 @@
       <c r="K12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="n">
+        <v>9304</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="n">
         <f aca="false">SUM(G12-H12)</f>
@@ -2620,7 +2630,9 @@
       <c r="K13" s="14" t="n">
         <v>514</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15" t="n">
+        <v>490</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="16" t="n">
         <f aca="false">SUM(G13-H13)</f>
@@ -2700,7 +2712,9 @@
       <c r="K14" s="14" t="n">
         <v>273</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="n">
+        <v>257</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="16" t="n">
         <f aca="false">SUM(G14-H14)</f>
@@ -2780,7 +2794,9 @@
       <c r="K15" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15" t="n">
+        <v>59142</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="16" t="n">
         <f aca="false">SUM(G15-H15)</f>
@@ -2860,7 +2876,9 @@
       <c r="K16" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="15" t="n">
+        <v>59265</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="16" t="n">
         <f aca="false">SUM(G16-H16)</f>
@@ -2940,7 +2958,9 @@
       <c r="K17" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="15" t="n">
+        <v>33</v>
+      </c>
       <c r="M17" s="17"/>
       <c r="N17" s="16" t="n">
         <f aca="false">SUM(G17-H17)</f>
@@ -3015,11 +3035,11 @@
       </c>
       <c r="R18" s="20" t="n">
         <f aca="false">AVERAGE(R8:R17)</f>
-        <v>453</v>
+        <v>69</v>
       </c>
       <c r="S18" s="21" t="n">
         <f aca="false">AVERAGE(S8:S17)</f>
-        <v>0</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
